--- a/data/pitcher_data/2021/alberto_hanser.xlsx
+++ b/data/pitcher_data/2021/alberto_hanser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -587,16 +592,21 @@
       <c r="P2" t="n">
         <v>9</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>86</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>7</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -647,16 +657,21 @@
       <c r="P3" t="n">
         <v>9</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>86</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>7</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>14</v>
       </c>
     </row>
